--- a/biology/Botanique/Gladiolus_illyricus/Gladiolus_illyricus.xlsx
+++ b/biology/Botanique/Gladiolus_illyricus/Gladiolus_illyricus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Glaïeul d'Illyrie (Gladiolus illyricus) est une plante vivace du genre Gladiolus et de la famille des Iridaceae. Elle pousse en Europe et plus particulièrement sur le pourtour méditerranéen.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Gladiolus communis subsp. illyricus (W.D.J.Koch) Bonnier &amp; Layens</t>
         </is>
@@ -541,10 +555,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Grande-Bretagne, une petite population est connue dans la région de New Forest. Williamson suggère que cette population pourrait être introduite[1],[2].
-Il est devenu une espèce protégée au Royaume-Uni en 1975 en vertu de la loi sur la conservation des créatures sauvages et des plantes sauvages[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Grande-Bretagne, une petite population est connue dans la région de New Forest. Williamson suggère que cette population pourrait être introduite,.
+Il est devenu une espèce protégée au Royaume-Uni en 1975 en vertu de la loi sur la conservation des créatures sauvages et des plantes sauvages.
 			Gladiolus illyricusau jardin botanique d'Aarhus, Danemark.
 			Gladiolus illyricusfruits séchés et grainesMuséum de Toulouse
 </t>
